--- a/matrice d'implication.xlsx
+++ b/matrice d'implication.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ECB532-2015-224A-BCDD-076C6E22A5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{59ECB532-2015-224A-BCDD-076C6E22A5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2BC9D33-8522-45F1-8742-B7C1E6D2C8B4}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1080" windowWidth="28400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>projet :</t>
   </si>
@@ -47,43 +47,52 @@
     <t>étudiants</t>
   </si>
   <si>
-    <t>nom 1</t>
-  </si>
-  <si>
-    <t>nom 2</t>
-  </si>
-  <si>
-    <t>nom 3</t>
-  </si>
-  <si>
     <t>nom 4</t>
   </si>
   <si>
     <t>nom 5</t>
   </si>
   <si>
-    <t>date:</t>
-  </si>
-  <si>
     <t>version:</t>
   </si>
   <si>
     <t>REMARQUES:</t>
   </si>
   <si>
-    <t>Tâche 1</t>
-  </si>
-  <si>
-    <t>Tâche 2</t>
-  </si>
-  <si>
-    <t>30%%</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>MATRICE D'IMPLICATION</t>
+  </si>
+  <si>
+    <t>Valentin H</t>
+  </si>
+  <si>
+    <t>Mathys T</t>
+  </si>
+  <si>
+    <t>Romane C</t>
+  </si>
+  <si>
+    <t>Déploiement du projet Génie Logiciel</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Gestion des API</t>
+  </si>
+  <si>
+    <t>Création des screens</t>
+  </si>
+  <si>
+    <t>Création des components</t>
+  </si>
+  <si>
+    <t>Rapport</t>
+  </si>
+  <si>
+    <t>Développement mobile</t>
+  </si>
+  <si>
+    <t>date: 28/04/2023</t>
   </si>
 </sst>
 </file>
@@ -131,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -415,11 +424,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -528,6 +552,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,22 +839,22 @@
   <dimension ref="B1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" style="1" customWidth="1"/>
     <col min="4" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -836,7 +863,7 @@
       <c r="G2" s="24"/>
       <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -845,22 +872,24 @@
       <c r="G3" s="27"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="2:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="35" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="36"/>
       <c r="E4" s="32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="32" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="29" t="s">
         <v>1</v>
       </c>
@@ -873,7 +902,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -881,115 +910,141 @@
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="H6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="37" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="22">
         <v>0.5</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>16</v>
+      <c r="F7" s="22">
+        <v>0.5</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <f>1+B7</f>
         <v>2</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>15</v>
+      <c r="D8" s="21">
+        <v>0.75</v>
       </c>
       <c r="E8" s="22">
-        <v>0.7</v>
-      </c>
-      <c r="F8" s="18"/>
+        <v>0.15</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.1</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <f t="shared" ref="B9:B34" si="0">1+B8</f>
         <v>3</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>13</v>
+      <c r="C9" s="37" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="21">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="E9" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="F9" s="18"/>
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.1</v>
+      </c>
       <c r="G9" s="18"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="D10" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.1</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.5</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="C12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.5</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1001,7 +1056,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1013,7 +1068,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1025,7 +1080,7 @@
       <c r="G15" s="18"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1037,7 +1092,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1049,7 +1104,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1061,7 +1116,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1073,7 +1128,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1085,7 +1140,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1097,7 +1152,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1109,7 +1164,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1121,7 +1176,7 @@
       <c r="G23" s="18"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1133,7 +1188,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1145,7 +1200,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1157,7 +1212,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1169,7 +1224,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1181,7 +1236,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1193,7 +1248,7 @@
       <c r="G29" s="18"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1205,7 +1260,7 @@
       <c r="G30" s="18"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1217,7 +1272,7 @@
       <c r="G31" s="18"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1229,7 +1284,7 @@
       <c r="G32" s="18"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1241,7 +1296,7 @@
       <c r="G33" s="18"/>
       <c r="H33" s="20"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1253,7 +1308,7 @@
       <c r="G34" s="18"/>
       <c r="H34" s="20"/>
     </row>
-    <row r="35" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="5"/>
       <c r="C35" s="7"/>
       <c r="D35" s="9"/>
@@ -1262,9 +1317,9 @@
       <c r="G35" s="7"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -1273,27 +1328,27 @@
       <c r="G36" s="12"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="14"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="14"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="14"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="14"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="14"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="15"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
